--- a/files/excel/Branch.xlsx
+++ b/files/excel/Branch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RNDAutomation\files\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Newfolderr\RPAAutomation\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Code</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>DocumentNo</t>
-  </si>
-  <si>
-    <t>BDTTID</t>
   </si>
   <si>
     <t>EffectiveDate</t>
@@ -902,8 +899,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:T7" totalsRowShown="0">
-  <autoFilter ref="A2:T7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:T6" totalsRowShown="0">
+  <autoFilter ref="A2:T6"/>
   <tableColumns count="20">
     <tableColumn id="1" name="Code"/>
     <tableColumn id="2" name="Type"/>
@@ -1215,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1229,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -1310,15 +1307,15 @@
         <v>36</v>
       </c>
       <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
         <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1401,8 +1398,8 @@
       <c r="P4" s="4">
         <v>2</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>37</v>
+      <c r="Q4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="R4" s="4">
         <v>512312</v>
@@ -1415,124 +1412,94 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>82648995232</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="5">
+        <v>14530</v>
+      </c>
+      <c r="K5" s="9">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="1">
-        <v>452415</v>
+      <c r="R5" s="5">
+        <v>515431</v>
       </c>
       <c r="S5" s="7">
-        <v>45581</v>
+        <v>45585</v>
       </c>
       <c r="T5" s="7">
-        <v>45582</v>
+        <v>45587</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>82648995232</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="5">
-        <v>14530</v>
-      </c>
-      <c r="K6" s="9">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="1">
         <v>2</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="5">
-        <v>515431</v>
-      </c>
-      <c r="S6" s="7">
-        <v>45585</v>
-      </c>
-      <c r="T6" s="7">
-        <v>45587</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
